--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-site-search/tests/testdata/standard/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B95FC1-23D8-3A40-B7A4-E48B3C371323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.1</t>
   </si>
@@ -180,58 +185,101 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>除外されるべきコンテンツ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョガイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/ignored/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>除外の範囲内</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョガイ </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">ハンイナイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/ignored/this_is_ignored_too/ignored.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>除外されないコンテンツ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジョガイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/ignored/this_is_not_ignored/included.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>完全一致で除外されたパス</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カンゼンイッチ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/ignored/this_is_perfect_match_ignored/ignored.html</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Ryo Gothic PlusN L"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -255,13 +303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -294,7 +342,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -306,10 +354,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -324,7 +372,7 @@
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -338,24 +386,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -645,42 +706,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:V18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customHeight="1" ht="10">
+    <row r="1" spans="1:22" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +757,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -720,13 +771,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,13 +831,13 @@
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1054,48 +1105,161 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
     </row>
-    <row r="18" spans="1:22" customHeight="1" ht="5">
-      <c r="A18" s="10" t="s">
+    <row r="16" spans="1:22">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="22" spans="1:22" ht="5" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>